--- a/jdw_krj.xlsx
+++ b/jdw_krj.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>L</t>
   </si>
@@ -30,10 +30,7 @@
     <t>15</t>
   </si>
   <si>
-    <t>07:15</t>
-  </si>
-  <si>
-    <t>16:15</t>
+    <t>0105</t>
   </si>
 </sst>
 </file>
@@ -520,11 +517,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -882,29 +878,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="1.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>38</v>
+      <c r="A1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B1" s="1">
         <v>42849</v>
       </c>
       <c r="C1" s="1">
-        <v>42852</v>
+        <v>42853</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -920,23 +914,23 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>38</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>42853</v>
+        <v>42854</v>
       </c>
       <c r="C2" s="1">
-        <v>42853</v>
+        <v>42855</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
